--- a/data/interim_data/IPLPriceNStatcleaneddata.xlsx
+++ b/data/interim_data/IPLPriceNStatcleaneddata.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22666beef4f99752/Documents/Data Science/Springboard/SpringboardCapstone2/data/interim_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_7D0543E3A5FB0A6DB365403431E90E83787BCAA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B351D8BF-522E-4546-B1BA-50F8885061ED}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="4305" yWindow="2445" windowWidth="13860" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1999,11 +2005,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2067,6 +2073,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2113,7 +2127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2145,9 +2159,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2179,6 +2211,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2354,14 +2404,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2506,7 +2564,7 @@
         <v>22.44</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2571,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2660,13 +2718,13 @@
         <v>23.82</v>
       </c>
       <c r="AD4">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AE4">
         <v>17.05</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2713,7 +2771,7 @@
         <v>516</v>
       </c>
       <c r="P5">
-        <v>133.33</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2731,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2781,10 +2839,10 @@
         <v>9.32</v>
       </c>
       <c r="AE6">
-        <v>19.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2849,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2872,7 +2930,7 @@
         <v>189468</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2895,7 +2953,7 @@
         <v>189468</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2918,7 +2976,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2941,7 +2999,7 @@
         <v>119664</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2964,7 +3022,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2987,7 +3045,7 @@
         <v>69804</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3010,7 +3068,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3033,7 +3091,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3056,7 +3114,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3079,7 +3137,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3102,7 +3160,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3125,7 +3183,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3148,7 +3206,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3171,7 +3229,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3194,7 +3252,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3244,10 +3302,10 @@
         <v>9.06</v>
       </c>
       <c r="AE23">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3300,7 +3358,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3365,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3388,7 +3446,7 @@
         <v>523530</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3441,7 +3499,7 @@
         <v>22.24</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3464,7 +3522,7 @@
         <v>279216</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3517,7 +3575,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3570,7 +3628,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3593,7 +3651,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3616,7 +3674,7 @@
         <v>109692</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3681,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3704,7 +3762,7 @@
         <v>64818</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3727,7 +3785,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3750,7 +3808,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3773,7 +3831,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3796,7 +3854,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3819,7 +3877,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3884,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3907,7 +3965,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3930,7 +3988,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3983,7 +4041,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4030,7 +4088,7 @@
         <v>566</v>
       </c>
       <c r="P44">
-        <v>130.39</v>
+        <v>130.38999999999999</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -4078,7 +4136,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4131,7 +4189,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4154,7 +4212,7 @@
         <v>319104</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4195,7 +4253,7 @@
         <v>101</v>
       </c>
       <c r="N47">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="O47">
         <v>1783</v>
@@ -4219,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4242,7 +4300,7 @@
         <v>299160</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4265,7 +4323,7 @@
         <v>259272</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4288,7 +4346,7 @@
         <v>239328</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4311,7 +4369,7 @@
         <v>239328</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4334,7 +4392,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4399,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4452,7 +4510,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4517,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4540,7 +4598,7 @@
         <v>109692</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4563,7 +4621,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4607,7 +4665,7 @@
         <v>42430</v>
       </c>
       <c r="AC58">
-        <v>33.66</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="AD58">
         <v>8.94</v>
@@ -4616,7 +4674,7 @@
         <v>22.59</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4639,7 +4697,7 @@
         <v>29916</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4662,7 +4720,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4685,7 +4743,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4729,7 +4787,7 @@
         <v>43160</v>
       </c>
       <c r="AC62">
-        <v>32.63</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="AD62">
         <v>8.67</v>
@@ -4738,7 +4796,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4803,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4868,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4915,13 +4973,13 @@
         <v>30.16</v>
       </c>
       <c r="AD65">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AE65">
         <v>21.18</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4968,13 +5026,13 @@
         <v>31.4</v>
       </c>
       <c r="AD66">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="AE66">
         <v>21.63</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5015,13 +5073,13 @@
         <v>56</v>
       </c>
       <c r="N67">
-        <v>19.35</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="O67">
         <v>388</v>
       </c>
       <c r="P67">
-        <v>129.64</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5039,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5092,7 +5150,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5115,7 +5173,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5162,13 +5220,13 @@
         <v>36.96</v>
       </c>
       <c r="AD70">
-        <v>8.529999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AE70">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5221,7 +5279,7 @@
         <v>26.38</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5286,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5309,7 +5367,7 @@
         <v>59832</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5332,7 +5390,7 @@
         <v>54846</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5355,7 +5413,7 @@
         <v>54846</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5378,7 +5436,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5401,7 +5459,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5424,7 +5482,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5447,7 +5505,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5470,7 +5528,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5493,7 +5551,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5516,7 +5574,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5539,7 +5597,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5592,7 +5650,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5645,7 +5703,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5692,7 +5750,7 @@
         <v>970</v>
       </c>
       <c r="P86">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -5731,7 +5789,7 @@
         <v>41699</v>
       </c>
       <c r="AC86">
-        <v>33.41</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="AD86">
         <v>7.31</v>
@@ -5740,7 +5798,7 @@
         <v>27.41</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5763,7 +5821,7 @@
         <v>747900</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5786,7 +5844,7 @@
         <v>673110</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5827,13 +5885,13 @@
         <v>64</v>
       </c>
       <c r="N89">
-        <v>20.26</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="O89">
         <v>936</v>
       </c>
       <c r="P89">
-        <v>132.05</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5875,13 +5933,13 @@
         <v>50.1</v>
       </c>
       <c r="AD89">
-        <v>8.609999999999999</v>
+        <v>8.61</v>
       </c>
       <c r="AE89">
         <v>34.9</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5946,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5969,7 +6027,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6016,7 +6074,7 @@
         <v>477</v>
       </c>
       <c r="P92">
-        <v>137.11</v>
+        <v>137.11000000000001</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -6034,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6057,7 +6115,7 @@
         <v>89748</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6080,7 +6138,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6133,7 +6191,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6156,7 +6214,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6203,7 +6261,7 @@
         <v>818</v>
       </c>
       <c r="P97">
-        <v>131.17</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -6221,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6244,7 +6302,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6267,7 +6325,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6290,7 +6348,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6313,7 +6371,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6378,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6401,7 +6459,7 @@
         <v>822690</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6454,7 +6512,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6477,7 +6535,7 @@
         <v>299160</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6524,13 +6582,13 @@
         <v>37.36</v>
       </c>
       <c r="AD106">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="AE106">
         <v>25.71</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6553,7 +6611,7 @@
         <v>169524</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6606,7 +6664,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6629,7 +6687,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6676,13 +6734,13 @@
         <v>30.53</v>
       </c>
       <c r="AD110">
-        <v>8.789999999999999</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="AE110">
         <v>20.84</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6705,7 +6763,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6728,7 +6786,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6781,7 +6839,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6804,7 +6862,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6848,7 +6906,7 @@
         <v>47178</v>
       </c>
       <c r="AC115">
-        <v>38.45</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="AD115">
         <v>9.74</v>
@@ -6857,7 +6915,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6880,7 +6938,7 @@
         <v>29916</v>
       </c>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6903,7 +6961,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6926,7 +6984,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6949,7 +7007,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6972,7 +7030,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6995,7 +7053,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7018,7 +7076,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7083,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7136,7 +7194,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7159,7 +7217,7 @@
         <v>897480</v>
       </c>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7224,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7289,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7312,7 +7370,7 @@
         <v>598320</v>
       </c>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7365,7 +7423,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7388,7 +7446,7 @@
         <v>378936</v>
       </c>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7411,7 +7469,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7434,7 +7492,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7457,7 +7515,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7480,7 +7538,7 @@
         <v>59832</v>
       </c>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7533,7 +7591,7 @@
         <v>25.08</v>
       </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7583,10 +7641,10 @@
         <v>7.77</v>
       </c>
       <c r="AE136">
-        <v>20.33</v>
-      </c>
-    </row>
-    <row r="137" spans="1:31">
+        <v>20.329999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7609,7 +7667,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7632,7 +7690,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7655,7 +7713,7 @@
         <v>24930</v>
       </c>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7678,7 +7736,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7701,7 +7759,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7724,7 +7782,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7747,7 +7805,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7770,7 +7828,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7793,7 +7851,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="146" spans="1:31">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7846,7 +7904,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="147" spans="1:31">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7893,7 +7951,7 @@
         <v>546</v>
       </c>
       <c r="P147">
-        <v>152.2</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -7911,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:31">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7958,13 +8016,13 @@
         <v>26.9</v>
       </c>
       <c r="AD148">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AE148">
         <v>19.45</v>
       </c>
     </row>
-    <row r="149" spans="1:31">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8029,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:31">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8082,7 +8140,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="151" spans="1:31">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8105,7 +8163,7 @@
         <v>498600</v>
       </c>
     </row>
-    <row r="152" spans="1:31">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8170,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:31">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8223,7 +8281,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="154" spans="1:31">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8273,10 +8331,10 @@
         <v>7.7</v>
       </c>
       <c r="AE154">
-        <v>17.85</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8299,7 +8357,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="156" spans="1:31">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8364,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:31">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8387,7 +8445,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="158" spans="1:31">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8410,7 +8468,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="159" spans="1:31">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8433,7 +8491,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8456,7 +8514,7 @@
         <v>29916</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8479,7 +8537,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8502,7 +8560,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8525,7 +8583,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8548,7 +8606,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8571,7 +8629,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8594,7 +8652,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8638,7 +8696,7 @@
         <v>43221</v>
       </c>
       <c r="AC167">
-        <v>18.85</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="AD167">
         <v>7.78</v>
@@ -8647,7 +8705,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8700,7 +8758,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8753,7 +8811,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8776,7 +8834,7 @@
         <v>698040</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8841,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8864,7 +8922,7 @@
         <v>339048</v>
       </c>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8887,7 +8945,7 @@
         <v>239328</v>
       </c>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8910,7 +8968,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8933,7 +8991,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8956,7 +9014,7 @@
         <v>94734</v>
       </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8979,7 +9037,7 @@
         <v>79776</v>
       </c>
     </row>
-    <row r="178" spans="1:31">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9002,7 +9060,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="179" spans="1:31">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9025,7 +9083,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="180" spans="1:31">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9078,7 +9136,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="181" spans="1:31">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9101,7 +9159,7 @@
         <v>29916</v>
       </c>
     </row>
-    <row r="182" spans="1:31">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9124,7 +9182,7 @@
         <v>24930</v>
       </c>
     </row>
-    <row r="183" spans="1:31">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9147,7 +9205,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="184" spans="1:31">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9170,7 +9228,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="185" spans="1:31">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9193,7 +9251,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="186" spans="1:31">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9258,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:31">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9302,7 +9360,7 @@
         <v>42430</v>
       </c>
       <c r="AC187">
-        <v>33.52</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="AD187">
         <v>7.23</v>
@@ -9311,7 +9369,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="188" spans="1:31">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9358,7 +9416,7 @@
         <v>1277</v>
       </c>
       <c r="P188">
-        <v>140.8</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -9376,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:31">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9399,7 +9457,7 @@
         <v>772830</v>
       </c>
     </row>
-    <row r="190" spans="1:31">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -9464,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:31">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9517,7 +9575,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="192" spans="1:31">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9540,7 +9598,7 @@
         <v>418824</v>
       </c>
     </row>
-    <row r="193" spans="1:31">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -9563,7 +9621,7 @@
         <v>398880</v>
       </c>
     </row>
-    <row r="194" spans="1:31">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9610,13 +9668,13 @@
         <v>40.71</v>
       </c>
       <c r="AD194">
-        <v>9.470000000000001</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="AE194">
         <v>25.79</v>
       </c>
     </row>
-    <row r="195" spans="1:31">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9681,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:31">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -9704,7 +9762,7 @@
         <v>239328</v>
       </c>
     </row>
-    <row r="197" spans="1:31">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9727,7 +9785,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="198" spans="1:31">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9774,13 +9832,13 @@
         <v>26.16</v>
       </c>
       <c r="AD198">
-        <v>8.109999999999999</v>
+        <v>8.11</v>
       </c>
       <c r="AE198">
         <v>19.37</v>
       </c>
     </row>
-    <row r="199" spans="1:31">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9803,7 +9861,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="200" spans="1:31">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9826,7 +9884,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="201" spans="1:31">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9849,7 +9907,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="202" spans="1:31">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9902,7 +9960,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="203" spans="1:31">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9925,7 +9983,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="204" spans="1:31">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9948,7 +10006,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="205" spans="1:31">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9971,7 +10029,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="206" spans="1:31">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10012,7 +10070,7 @@
         <v>100</v>
       </c>
       <c r="N206">
-        <v>32.52</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="O206">
         <v>4042</v>
@@ -10066,7 +10124,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="207" spans="1:31">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10131,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10172,7 +10230,7 @@
         <v>66</v>
       </c>
       <c r="N208">
-        <v>19.83</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="O208">
         <v>637</v>
@@ -10226,7 +10284,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="209" spans="1:31">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10249,7 +10307,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="210" spans="1:31">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10302,7 +10360,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="211" spans="1:31">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10325,7 +10383,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="212" spans="1:31">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10348,7 +10406,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="213" spans="1:31">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -10371,7 +10429,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="214" spans="1:31">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -10394,7 +10452,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="215" spans="1:31">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -10417,7 +10475,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="216" spans="1:31">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -10440,7 +10498,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="217" spans="1:31">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -10463,7 +10521,7 @@
         <v>199440</v>
       </c>
     </row>
-    <row r="218" spans="1:31">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -10516,7 +10574,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="219" spans="1:31">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -10563,7 +10621,7 @@
         <v>1631</v>
       </c>
       <c r="P219">
-        <v>128.2</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="Q219">
         <v>0</v>
@@ -10581,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:31">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -10604,7 +10662,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="221" spans="1:31">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -10669,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:31">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10722,7 +10780,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="223" spans="1:31">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10787,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:31">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -10810,7 +10868,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="225" spans="1:31">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -10833,7 +10891,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="226" spans="1:31">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -10880,13 +10938,13 @@
         <v>24.84</v>
       </c>
       <c r="AD226">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AE226">
         <v>17.63</v>
       </c>
     </row>
-    <row r="227" spans="1:31">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -10909,7 +10967,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="228" spans="1:31">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10932,7 +10990,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="229" spans="1:31">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11027,7 +11085,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="230" spans="1:31">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11050,7 +11108,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="231" spans="1:31">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11073,7 +11131,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="232" spans="1:31">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11126,7 +11184,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="233" spans="1:31">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11149,7 +11207,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="234" spans="1:31">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11172,7 +11230,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="235" spans="1:31">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11261,13 +11319,13 @@
         <v>30.69</v>
       </c>
       <c r="AD235">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="AE235">
         <v>22.62</v>
       </c>
     </row>
-    <row r="236" spans="1:31">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11332,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:31">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11355,7 +11413,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="238" spans="1:31">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -11402,7 +11460,7 @@
         <v>389</v>
       </c>
       <c r="P238">
-        <v>135.48</v>
+        <v>135.47999999999999</v>
       </c>
       <c r="Q238">
         <v>0</v>
@@ -11450,7 +11508,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="239" spans="1:31">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -11473,7 +11531,7 @@
         <v>99720</v>
       </c>
     </row>
-    <row r="240" spans="1:31">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -11496,7 +11554,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="241" spans="1:31">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -11519,7 +11577,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="242" spans="1:31">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -11542,7 +11600,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="243" spans="1:31">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -11565,7 +11623,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="244" spans="1:31">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -11588,7 +11646,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="245" spans="1:31">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -11611,7 +11669,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="246" spans="1:31">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -11664,7 +11722,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="247" spans="1:31">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -11687,7 +11745,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="248" spans="1:31">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -11710,7 +11768,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="249" spans="1:31">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -11733,7 +11791,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="250" spans="1:31">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -11756,7 +11814,7 @@
         <v>74790</v>
       </c>
     </row>
-    <row r="251" spans="1:31">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -11779,7 +11837,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="252" spans="1:31">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -11844,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:31">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -11867,7 +11925,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="254" spans="1:31">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -11890,7 +11948,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="255" spans="1:31">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -11913,7 +11971,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="256" spans="1:31">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -11936,7 +11994,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="257" spans="1:31">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11959,7 +12017,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="258" spans="1:31">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -11982,7 +12040,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="259" spans="1:31">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12005,7 +12063,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="260" spans="1:31">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12028,7 +12086,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="261" spans="1:31">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12051,7 +12109,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="262" spans="1:31">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12074,7 +12132,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="263" spans="1:31">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12097,7 +12155,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="264" spans="1:31">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12120,7 +12178,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="265" spans="1:31">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12143,7 +12201,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="266" spans="1:31">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12166,7 +12224,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="267" spans="1:31">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -12189,7 +12247,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="268" spans="1:31">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -12212,7 +12270,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="269" spans="1:31">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -12235,7 +12293,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="270" spans="1:31">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -12258,7 +12316,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="271" spans="1:31">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -12281,7 +12339,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="272" spans="1:31">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -12334,7 +12392,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="273" spans="1:31">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -12357,7 +12415,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="274" spans="1:31">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -12380,7 +12438,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="275" spans="1:31">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -12403,7 +12461,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="276" spans="1:31">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -12426,7 +12484,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="277" spans="1:31">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -12449,7 +12507,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="278" spans="1:31">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -12472,7 +12530,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="279" spans="1:31">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -12495,7 +12553,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="280" spans="1:31">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -12518,7 +12576,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="281" spans="1:31">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -12571,7 +12629,7 @@
         <v>21.06</v>
       </c>
     </row>
-    <row r="282" spans="1:31">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -12594,7 +12652,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="283" spans="1:31">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12617,7 +12675,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="284" spans="1:31">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -12640,7 +12698,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="285" spans="1:31">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -12663,7 +12721,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="286" spans="1:31">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12686,7 +12744,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="287" spans="1:31">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -12709,7 +12767,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="288" spans="1:31">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -12732,7 +12790,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="289" spans="1:31">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -12755,7 +12813,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="290" spans="1:31">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -12778,7 +12836,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="291" spans="1:31">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -12843,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:31">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -12866,7 +12924,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="293" spans="1:31">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -12889,7 +12947,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="294" spans="1:31">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -12912,7 +12970,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="295" spans="1:31">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -12935,7 +12993,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="296" spans="1:31">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -12958,7 +13016,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="297" spans="1:31">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -12981,7 +13039,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="298" spans="1:31">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -13004,7 +13062,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="299" spans="1:31">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -13027,7 +13085,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="300" spans="1:31">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -13074,13 +13132,13 @@
         <v>26.85</v>
       </c>
       <c r="AD300">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AE300">
         <v>19.07</v>
       </c>
     </row>
-    <row r="301" spans="1:31">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -13133,7 +13191,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="302" spans="1:31">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -13156,7 +13214,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="303" spans="1:31">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -13179,7 +13237,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="304" spans="1:31">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -13232,7 +13290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:31">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -13255,7 +13313,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="306" spans="1:31">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -13299,7 +13357,7 @@
         <v>43891</v>
       </c>
       <c r="AC306">
-        <v>32.77</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="AD306">
         <v>8.73</v>
@@ -13308,7 +13366,7 @@
         <v>22.52</v>
       </c>
     </row>
-    <row r="307" spans="1:31">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -13373,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:31">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -13396,7 +13454,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="309" spans="1:31">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -13419,7 +13477,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="310" spans="1:31">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -13442,7 +13500,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="311" spans="1:31">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -13465,7 +13523,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="312" spans="1:31">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -13488,7 +13546,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="313" spans="1:31">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -13511,7 +13569,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="314" spans="1:31">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -13534,7 +13592,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="315" spans="1:31">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -13557,7 +13615,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="316" spans="1:31">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -13580,7 +13638,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="317" spans="1:31">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -13603,7 +13661,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="318" spans="1:31">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -13626,7 +13684,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="319" spans="1:31">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -13649,7 +13707,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="320" spans="1:31">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -13672,7 +13730,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -13695,7 +13753,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -13718,7 +13776,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -13741,7 +13799,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -13764,7 +13822,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -13787,7 +13845,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -13810,7 +13868,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -13833,7 +13891,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -13856,7 +13914,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -13879,7 +13937,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -13902,7 +13960,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -13925,7 +13983,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -13948,7 +14006,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -13971,7 +14029,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -13994,7 +14052,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -14017,7 +14075,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -14040,7 +14098,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -14063,7 +14121,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -14086,7 +14144,7 @@
         <v>29916</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -14109,7 +14167,7 @@
         <v>29916</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -14132,7 +14190,7 @@
         <v>29916</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -14155,7 +14213,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -14178,7 +14236,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -14201,7 +14259,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -14224,7 +14282,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -14247,7 +14305,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -14270,7 +14328,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -14293,7 +14351,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -14316,7 +14374,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -14339,7 +14397,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -14362,7 +14420,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -14385,7 +14443,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -14408,7 +14466,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -14431,7 +14489,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -14454,7 +14512,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -14477,7 +14535,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -14500,7 +14558,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -14523,7 +14581,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -14546,7 +14604,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -14569,7 +14627,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -14592,7 +14650,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -14615,7 +14673,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -14638,7 +14696,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -14661,7 +14719,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -14684,7 +14742,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -14707,7 +14765,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -14730,7 +14788,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -14753,7 +14811,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -14776,7 +14834,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -14799,7 +14857,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -14822,7 +14880,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -14845,7 +14903,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -14868,7 +14926,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -14891,7 +14949,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -14914,7 +14972,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -14937,7 +14995,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -14960,7 +15018,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -14983,7 +15041,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -15006,7 +15064,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -15029,7 +15087,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -15052,7 +15110,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -15075,7 +15133,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -15098,7 +15156,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -15121,7 +15179,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -15144,7 +15202,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -15167,7 +15225,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -15190,7 +15248,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -15213,7 +15271,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -15236,7 +15294,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -15259,7 +15317,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -15282,7 +15340,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -15305,7 +15363,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -15328,7 +15386,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -15351,7 +15409,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -15374,7 +15432,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -15397,7 +15455,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -15420,7 +15478,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -15443,7 +15501,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -15466,7 +15524,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -15489,7 +15547,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -15512,7 +15570,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -15535,7 +15593,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -15558,7 +15616,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -15581,7 +15639,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -15604,7 +15662,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -15627,7 +15685,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -15650,7 +15708,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -15673,7 +15731,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -15696,7 +15754,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -15719,7 +15777,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -15742,7 +15800,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -15765,7 +15823,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -15788,7 +15846,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -15811,7 +15869,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -15834,7 +15892,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -15857,7 +15915,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -15880,7 +15938,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -15903,7 +15961,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -15926,7 +15984,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -15949,7 +16007,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -15972,7 +16030,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -15995,7 +16053,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -16018,7 +16076,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -16041,7 +16099,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -16064,7 +16122,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -16087,7 +16145,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -16110,7 +16168,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -16133,7 +16191,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -16156,7 +16214,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -16179,7 +16237,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -16202,7 +16260,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -16225,7 +16283,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -16248,7 +16306,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -16271,7 +16329,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -16294,7 +16352,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -16317,7 +16375,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -16340,7 +16398,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -16363,7 +16421,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -16386,7 +16444,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -16409,7 +16467,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -16432,7 +16490,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -16455,7 +16513,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -16478,7 +16536,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -16501,7 +16559,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -16524,7 +16582,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -16547,7 +16605,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -16570,7 +16628,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -16593,7 +16651,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -16616,7 +16674,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -16639,7 +16697,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -16662,7 +16720,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -16685,7 +16743,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -16708,7 +16766,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -16731,7 +16789,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -16754,7 +16812,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -16777,7 +16835,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -16800,7 +16858,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -16823,7 +16881,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -16846,7 +16904,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -16869,7 +16927,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -16892,7 +16950,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -16915,7 +16973,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -16938,7 +16996,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -16961,7 +17019,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -16984,7 +17042,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="465" spans="1:31">
+    <row r="465" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -17007,7 +17065,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="466" spans="1:31">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -17030,7 +17088,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="467" spans="1:31">
+    <row r="467" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -17053,7 +17111,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="468" spans="1:31">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -17076,7 +17134,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="469" spans="1:31">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -17099,7 +17157,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="470" spans="1:31">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -17122,7 +17180,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="471" spans="1:31">
+    <row r="471" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -17145,7 +17203,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="472" spans="1:31">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -17168,7 +17226,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="473" spans="1:31">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -17191,7 +17249,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="474" spans="1:31">
+    <row r="474" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -17214,7 +17272,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="475" spans="1:31">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -17237,7 +17295,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="476" spans="1:31">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -17260,7 +17318,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="477" spans="1:31">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -17283,7 +17341,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="478" spans="1:31">
+    <row r="478" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -17306,7 +17364,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="479" spans="1:31">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -17329,7 +17387,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="480" spans="1:31">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -17382,7 +17440,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -17405,7 +17463,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -17428,7 +17486,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -17451,7 +17509,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -17474,7 +17532,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -17497,7 +17555,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -17520,7 +17578,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -17543,7 +17601,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -17566,7 +17624,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -17589,7 +17647,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -17612,7 +17670,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -17635,7 +17693,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -17658,7 +17716,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -17681,7 +17739,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -17704,7 +17762,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -17727,7 +17785,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -17750,7 +17808,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -17773,7 +17831,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -17796,7 +17854,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -17819,7 +17877,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -17842,7 +17900,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -17865,7 +17923,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -17888,7 +17946,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -17911,7 +17969,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -17934,7 +17992,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -17957,7 +18015,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -17980,7 +18038,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -18003,7 +18061,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -18026,7 +18084,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -18049,7 +18107,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -18072,7 +18130,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -18095,7 +18153,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -18118,7 +18176,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -18141,7 +18199,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -18164,7 +18222,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -18187,7 +18245,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -18210,7 +18268,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -18233,7 +18291,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -18256,7 +18314,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -18279,7 +18337,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -18302,7 +18360,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -18325,7 +18383,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -18348,7 +18406,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -18371,7 +18429,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -18394,7 +18452,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -18417,7 +18475,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -18440,7 +18498,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -18463,7 +18521,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -18486,7 +18544,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -18509,7 +18567,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -18532,7 +18590,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -18555,7 +18613,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -18578,7 +18636,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -18601,7 +18659,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -18624,7 +18682,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -18647,7 +18705,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -18670,7 +18728,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -18693,7 +18751,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -18716,7 +18774,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -18739,7 +18797,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -18762,7 +18820,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -18785,7 +18843,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -18808,7 +18866,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -18831,7 +18889,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -18854,7 +18912,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -18877,7 +18935,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -18900,7 +18958,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -18923,7 +18981,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -18946,7 +19004,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -18969,7 +19027,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -18992,7 +19050,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -19015,7 +19073,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -19038,7 +19096,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -19061,7 +19119,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -19084,7 +19142,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -19107,7 +19165,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -19130,7 +19188,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -19153,7 +19211,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -19176,7 +19234,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -19199,7 +19257,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -19222,7 +19280,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -19245,7 +19303,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -19268,7 +19326,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -19291,7 +19349,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -19314,7 +19372,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -19337,7 +19395,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -19360,7 +19418,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -19383,7 +19441,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -19406,7 +19464,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -19429,7 +19487,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -19452,7 +19510,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -19475,7 +19533,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -19498,7 +19556,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -19521,7 +19579,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -19544,7 +19602,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -19567,7 +19625,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -19590,7 +19648,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -19613,7 +19671,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -19636,7 +19694,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -19659,7 +19717,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -19682,7 +19740,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -19705,7 +19763,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -19728,7 +19786,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -19751,7 +19809,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -19774,7 +19832,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -19797,7 +19855,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -19820,7 +19878,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -19843,7 +19901,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -19866,7 +19924,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -19889,7 +19947,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -19912,7 +19970,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -19935,7 +19993,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -19958,7 +20016,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -19981,7 +20039,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -20004,7 +20062,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -20027,7 +20085,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -20050,7 +20108,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -20073,7 +20131,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -20096,7 +20154,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -20119,7 +20177,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -20142,7 +20200,7 @@
         <v>19944</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
